--- a/Test Plan Template.xlsx
+++ b/Test Plan Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/propelicsgdl/2021_python_selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E72462-7F34-6241-B7B9-088AE650332D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69263FFB-A50B-9046-9514-815CD3786764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31940" yWindow="2600" windowWidth="32280" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -269,6 +269,42 @@
   </si>
   <si>
     <t>Click on CONTINUE SHOPPING</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-8</t>
+  </si>
+  <si>
+    <t>Sort Products by Price (Low to high)</t>
+  </si>
+  <si>
+    <t>Click on Product Sort Dropdown and select Price (Low to high)</t>
+  </si>
+  <si>
+    <t>All items should be sorted by lower to higher Price</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-9</t>
+  </si>
+  <si>
+    <t>Sort Products by Price (hgh to low)</t>
+  </si>
+  <si>
+    <t>Click on Product Sort Dropdown and select Price (High to Low)</t>
+  </si>
+  <si>
+    <t>All items should be sorted by higher to lower Price</t>
+  </si>
+  <si>
+    <t>Sort Products by Name (Z to A)</t>
+  </si>
+  <si>
+    <t>Click on Product Sort Dropdown and select Nme (Z to A)</t>
+  </si>
+  <si>
+    <t>All items should be sorted by name from Z to A</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-10</t>
   </si>
 </sst>
 </file>
@@ -605,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1718,21 +1754,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="10">
-        <v>10</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1741,12 +1789,16 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="10">
-        <v>11</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1755,12 +1807,16 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="10">
-        <v>12</v>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1769,298 +1825,470 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="10">
-        <v>13</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H62" s="10">
+        <v>4</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H63" s="10">
+        <v>5</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H64" s="10">
+        <v>6</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H66" s="10">
+        <v>1</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H67" s="10">
+        <v>2</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H68" s="10">
+        <v>3</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H69" s="10">
+        <v>4</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H70" s="10">
+        <v>5</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H71" s="10">
+        <v>6</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H73" s="10">
+        <v>1</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H74" s="10">
+        <v>2</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H75" s="10">
+        <v>3</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H76" s="10">
+        <v>4</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H77" s="10">
+        <v>5</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H78" s="10">
+        <v>6</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="9"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H80" s="10">
+        <v>1</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H81" s="10">
+        <v>2</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="9"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H82" s="10">
+        <v>3</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H83" s="10">
+        <v>4</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="9"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-    </row>
-    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H84" s="10">
+        <v>5</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="9"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="H85" s="10">
+        <v>6</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
@@ -13099,6 +13327,10 @@
     <hyperlink ref="I25" r:id="rId5" xr:uid="{256F8D02-A815-0E45-9401-E62C037C1EF9}"/>
     <hyperlink ref="I35" r:id="rId6" xr:uid="{BA104DF7-0010-584C-84F8-ACFC7168688C}"/>
     <hyperlink ref="I49" r:id="rId7" xr:uid="{76EFE357-AE8D-7B41-B69D-0E1F38E508AC}"/>
+    <hyperlink ref="I59" r:id="rId8" xr:uid="{AB747E99-E903-BD4E-B9B4-6FA657E76CD1}"/>
+    <hyperlink ref="I66" r:id="rId9" xr:uid="{778964EA-380E-3E4A-8774-75FAE42D12A0}"/>
+    <hyperlink ref="I73" r:id="rId10" xr:uid="{0AEF1B92-05EC-3242-97E0-EFACAB3570AC}"/>
+    <hyperlink ref="I80" r:id="rId11" xr:uid="{206D595F-8F92-CB4B-9F87-37855520F384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Plan Template.xlsx
+++ b/Test Plan Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/propelicsgdl/2021_python_selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69263FFB-A50B-9046-9514-815CD3786764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9AD965-AB6B-AB46-9263-FDC9B4E82FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31940" yWindow="2600" windowWidth="32280" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>SAUCE-LAB-10</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-11</t>
+  </si>
+  <si>
+    <t>Checkout ContinueShopping</t>
+  </si>
+  <si>
+    <t>Add to Cart first Product</t>
+  </si>
+  <si>
+    <t>Product should be added to cart</t>
   </si>
 </sst>
 </file>
@@ -641,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2290,89 +2302,139 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-    </row>
-    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="9"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-    </row>
-    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H87" s="10">
+        <v>1</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="9"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-    </row>
-    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H88" s="10">
+        <v>2</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H89" s="10">
+        <v>3</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H90" s="10">
+        <v>4</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="9"/>
+      <c r="D91" s="10"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H91" s="10">
+        <v>5</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="9"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
+      <c r="H92" s="10">
+        <v>6</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
@@ -2382,7 +2444,9 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="9">
+        <v>7</v>
+      </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
     </row>
@@ -2394,7 +2458,9 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="9">
+        <v>8</v>
+      </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
     </row>
@@ -2406,7 +2472,9 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="9">
+        <v>9</v>
+      </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
     </row>
@@ -13331,6 +13399,7 @@
     <hyperlink ref="I66" r:id="rId9" xr:uid="{778964EA-380E-3E4A-8774-75FAE42D12A0}"/>
     <hyperlink ref="I73" r:id="rId10" xr:uid="{0AEF1B92-05EC-3242-97E0-EFACAB3570AC}"/>
     <hyperlink ref="I80" r:id="rId11" xr:uid="{206D595F-8F92-CB4B-9F87-37855520F384}"/>
+    <hyperlink ref="I87" r:id="rId12" xr:uid="{2F1B5E81-1173-344B-866D-9D29AE12A8C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Plan Template.xlsx
+++ b/Test Plan Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/propelicsgdl/2021_python_selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9AD965-AB6B-AB46-9263-FDC9B4E82FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E7AAC-C3DF-B046-9CBF-44DDEF061658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="2600" windowWidth="32280" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72280" yWindow="4840" windowWidth="32280" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="99">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Sauce Labs Backpack is added in the shopping cart and ADD TO CART button change to REMOVE</t>
   </si>
   <si>
-    <t>Click REMOVE on Sauce Labs Bolt T-Shirt</t>
-  </si>
-  <si>
     <t>Click on Back</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
   </si>
   <si>
     <t>Click on Shopping Cart</t>
-  </si>
-  <si>
-    <t>Cart page is loaded and all selected product are listed.</t>
   </si>
   <si>
     <t>REMOVE all the items</t>
@@ -318,6 +312,39 @@
   <si>
     <t>Product should be added to cart</t>
   </si>
+  <si>
+    <t>SAUCE-LAB-12</t>
+  </si>
+  <si>
+    <t>Your cart screen is loaded</t>
+  </si>
+  <si>
+    <t>User returns to Product page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Check Out </t>
+  </si>
+  <si>
+    <t>User navigates to checkout Information page</t>
+  </si>
+  <si>
+    <t>Checkout Checkout Item</t>
+  </si>
+  <si>
+    <t>Remove all products from Shopping Cart page</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-13</t>
+  </si>
+  <si>
+    <t>SAUCE-LAB-14</t>
+  </si>
+  <si>
+    <t>Add from Product details page</t>
+  </si>
+  <si>
+    <t>Click on Sauce Labs Backpack</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +384,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +403,12 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -389,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +687,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1004"/>
+  <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1131,7 +1167,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1319,7 +1355,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -1446,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>55</v>
@@ -1464,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1485,26 +1521,34 @@
         <v>59</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="10">
-        <v>9</v>
-      </c>
-      <c r="I43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
@@ -1515,16 +1559,16 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="10">
-        <v>10</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1533,16 +1577,16 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1551,16 +1595,16 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1569,42 +1613,34 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="10">
+        <v>5</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1613,34 +1649,42 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="10">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="10">
-        <v>2</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1649,16 +1693,16 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="10">
-        <v>3</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1667,16 +1711,16 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1685,16 +1729,16 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1703,16 +1747,16 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1721,13 +1765,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -1739,16 +1783,16 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1757,21 +1801,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
@@ -1894,18 +1938,18 @@
         <v>6</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J64" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>12</v>
@@ -2028,18 +2072,18 @@
         <v>6</v>
       </c>
       <c r="I71" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A72" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>12</v>
@@ -2162,18 +2206,18 @@
         <v>6</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>12</v>
@@ -2284,7 +2328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2296,39 +2340,31 @@
         <v>6</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="10">
+        <v>7</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2337,32 +2373,40 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="10">
-        <v>1</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="10">
-        <v>2</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A88" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
@@ -2373,16 +2417,16 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="10">
-        <v>3</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2391,16 +2435,16 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2409,16 +2453,16 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2427,44 +2471,52 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="9"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="9">
-        <v>7</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-    </row>
-    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H93" s="10">
+        <v>5</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="9"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="9">
-        <v>8</v>
-      </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H94" s="10">
+        <v>6</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2473,12 +2525,16 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="9">
-        <v>9</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-    </row>
-    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2486,153 +2542,239 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-    </row>
-    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H96" s="9">
+        <v>8</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="9"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H98" s="10">
+        <v>1</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-    </row>
-    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H99" s="10">
+        <v>2</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="9"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H100" s="10">
+        <v>3</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="9"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H101" s="10">
+        <v>4</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="9"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H102" s="10">
+        <v>5</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="9"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-    </row>
-    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H103" s="10">
+        <v>6</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="9"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H104" s="10">
+        <v>7</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="9"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-    </row>
-    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H105" s="10">
+        <v>8</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="9"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H106" s="10">
+        <v>9</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="9"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-    </row>
-    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H107" s="10">
+        <v>10</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="9"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+      <c r="H108" s="10">
+        <v>11</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
@@ -13302,90 +13444,6 @@
       <c r="I997" s="13"/>
       <c r="J997" s="13"/>
     </row>
-    <row r="998" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A998" s="8"/>
-      <c r="B998" s="8"/>
-      <c r="C998" s="8"/>
-      <c r="D998" s="9"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
-      <c r="G998" s="8"/>
-      <c r="H998" s="9"/>
-      <c r="I998" s="13"/>
-      <c r="J998" s="13"/>
-    </row>
-    <row r="999" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A999" s="8"/>
-      <c r="B999" s="8"/>
-      <c r="C999" s="8"/>
-      <c r="D999" s="9"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
-      <c r="G999" s="8"/>
-      <c r="H999" s="9"/>
-      <c r="I999" s="13"/>
-      <c r="J999" s="13"/>
-    </row>
-    <row r="1000" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="8"/>
-      <c r="D1000" s="9"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
-      <c r="G1000" s="8"/>
-      <c r="H1000" s="9"/>
-      <c r="I1000" s="13"/>
-      <c r="J1000" s="13"/>
-    </row>
-    <row r="1001" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1001" s="8"/>
-      <c r="B1001" s="8"/>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="9"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="8"/>
-      <c r="H1001" s="9"/>
-      <c r="I1001" s="13"/>
-      <c r="J1001" s="13"/>
-    </row>
-    <row r="1002" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1002" s="8"/>
-      <c r="B1002" s="8"/>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="9"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-      <c r="H1002" s="9"/>
-      <c r="I1002" s="13"/>
-      <c r="J1002" s="13"/>
-    </row>
-    <row r="1003" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1003" s="8"/>
-      <c r="B1003" s="8"/>
-      <c r="C1003" s="8"/>
-      <c r="D1003" s="9"/>
-      <c r="E1003" s="8"/>
-      <c r="F1003" s="8"/>
-      <c r="G1003" s="8"/>
-      <c r="H1003" s="9"/>
-      <c r="I1003" s="13"/>
-      <c r="J1003" s="13"/>
-    </row>
-    <row r="1004" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1004" s="8"/>
-      <c r="B1004" s="8"/>
-      <c r="C1004" s="8"/>
-      <c r="D1004" s="9"/>
-      <c r="E1004" s="8"/>
-      <c r="F1004" s="8"/>
-      <c r="G1004" s="8"/>
-      <c r="H1004" s="9"/>
-      <c r="I1004" s="13"/>
-      <c r="J1004" s="13"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13394,12 +13452,14 @@
     <hyperlink ref="I20" r:id="rId4" xr:uid="{63A37B66-E3D2-B148-BA2A-C90CF1576136}"/>
     <hyperlink ref="I25" r:id="rId5" xr:uid="{256F8D02-A815-0E45-9401-E62C037C1EF9}"/>
     <hyperlink ref="I35" r:id="rId6" xr:uid="{BA104DF7-0010-584C-84F8-ACFC7168688C}"/>
-    <hyperlink ref="I49" r:id="rId7" xr:uid="{76EFE357-AE8D-7B41-B69D-0E1F38E508AC}"/>
+    <hyperlink ref="I44" r:id="rId7" xr:uid="{76EFE357-AE8D-7B41-B69D-0E1F38E508AC}"/>
     <hyperlink ref="I59" r:id="rId8" xr:uid="{AB747E99-E903-BD4E-B9B4-6FA657E76CD1}"/>
     <hyperlink ref="I66" r:id="rId9" xr:uid="{778964EA-380E-3E4A-8774-75FAE42D12A0}"/>
     <hyperlink ref="I73" r:id="rId10" xr:uid="{0AEF1B92-05EC-3242-97E0-EFACAB3570AC}"/>
-    <hyperlink ref="I80" r:id="rId11" xr:uid="{206D595F-8F92-CB4B-9F87-37855520F384}"/>
-    <hyperlink ref="I87" r:id="rId12" xr:uid="{2F1B5E81-1173-344B-866D-9D29AE12A8C1}"/>
+    <hyperlink ref="I80" r:id="rId11" xr:uid="{2F1B5E81-1173-344B-866D-9D29AE12A8C1}"/>
+    <hyperlink ref="I89" r:id="rId12" xr:uid="{51C6B0C9-EA29-B54E-BBE9-C69615CFE410}"/>
+    <hyperlink ref="I51" r:id="rId13" xr:uid="{00581B69-D063-B443-90B3-9A944BBA8A99}"/>
+    <hyperlink ref="I98" r:id="rId14" xr:uid="{E071FE74-40EF-3A4E-ADD7-FD7B9B0ABB6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Plan Template.xlsx
+++ b/Test Plan Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/propelicsgdl/2021_python_selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E7AAC-C3DF-B046-9CBF-44DDEF061658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD73FA5-4056-C246-BE3A-21921343B005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72280" yWindow="4840" windowWidth="32280" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100980" yWindow="2380" windowWidth="43800" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,6 +468,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -739,7 +748,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -765,7 +774,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -783,7 +792,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -801,7 +810,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -819,7 +828,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -837,7 +846,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -863,7 +872,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -881,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -899,7 +908,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -917,7 +926,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -935,7 +944,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -961,7 +970,7 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
@@ -979,7 +988,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
@@ -997,7 +1006,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
@@ -1015,7 +1024,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
@@ -1033,7 +1042,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -1051,7 +1060,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -1069,7 +1078,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1095,7 +1104,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="10"/>
@@ -1113,7 +1122,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
@@ -1131,7 +1140,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="10"/>

--- a/Test Plan Template.xlsx
+++ b/Test Plan Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/propelicsgdl/2021_python_selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD73FA5-4056-C246-BE3A-21921343B005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB64363-04B8-0849-A164-2D952C553D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100980" yWindow="2380" windowWidth="43800" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100200" yWindow="2380" windowWidth="43800" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -345,6 +345,18 @@
   <si>
     <t>Click on Sauce Labs Backpack</t>
   </si>
+  <si>
+    <t>SAUCE-LAB-15</t>
+  </si>
+  <si>
+    <t>Validate user lands in Inventory Page</t>
+  </si>
+  <si>
+    <t>Validate user lands in inventory page by checking Label is PRODUCTS.</t>
+  </si>
+  <si>
+    <t>Inventory get label should display PRODUCTS</t>
+  </si>
 </sst>
 </file>
 
@@ -422,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,9 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -696,10 +705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J997"/>
+  <dimension ref="A1:J1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -748,7 +757,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -774,7 +783,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -792,7 +801,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -810,7 +819,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -828,7 +837,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -846,7 +855,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -872,7 +881,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -890,7 +899,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -908,7 +917,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -926,7 +935,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -944,7 +953,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -970,7 +979,7 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
@@ -988,7 +997,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
@@ -1006,7 +1015,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
@@ -1024,7 +1033,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
@@ -1042,7 +1051,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -1060,7 +1069,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -1078,7 +1087,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1104,7 +1113,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="10"/>
@@ -1122,7 +1131,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
@@ -1140,7 +1149,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
@@ -1158,7 +1167,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="10"/>
@@ -1177,10 +1186,10 @@
     </row>
     <row r="24" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -1273,11 +1282,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1285,219 +1294,227 @@
         <v>5</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10">
-        <v>6</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="10">
-        <v>7</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="9">
-        <v>8</v>
+      <c r="H32" s="10">
+        <v>2</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="9">
-        <v>9</v>
+      <c r="H33" s="10">
+        <v>3</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10">
+        <v>4</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="10">
-        <v>4</v>
+      <c r="H38" s="9">
+        <v>8</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="10">
-        <v>5</v>
+      <c r="H39" s="9">
+        <v>9</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="10">
-        <v>6</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1506,16 +1523,16 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="10">
-        <v>7</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1524,40 +1541,32 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="10">
+        <v>3</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
@@ -1568,16 +1577,16 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="10">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1586,16 +1595,16 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1604,16 +1613,16 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1622,13 +1631,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1640,60 +1649,60 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="10">
-        <v>6</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1702,13 +1711,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="10">
-        <v>1</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1720,16 +1729,16 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1738,16 +1747,16 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1756,16 +1765,16 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1774,34 +1783,42 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="10">
-        <v>6</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1810,42 +1827,34 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="10">
-        <v>7</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="10">
+        <v>2</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1854,16 +1863,16 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="10">
-        <v>1</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1872,16 +1881,16 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1890,16 +1899,16 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1908,16 +1917,16 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1926,60 +1935,60 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="10">
-        <v>6</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="A64" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="10">
+        <v>1</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1988,13 +1997,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="10">
-        <v>1</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2006,13 +2015,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2024,16 +2033,16 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2042,16 +2051,16 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2060,60 +2069,60 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="10">
-        <v>6</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="A71" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A72" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="10">
+        <v>1</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2122,16 +2131,16 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="10">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2140,13 +2149,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2158,16 +2167,16 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2176,16 +2185,16 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2194,60 +2203,60 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="10">
-        <v>6</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="A78" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A79" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="10">
+        <v>1</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2256,16 +2265,16 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="10">
-        <v>1</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2274,13 +2283,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2292,16 +2301,16 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2310,16 +2319,16 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2328,34 +2337,42 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="10">
-        <v>6</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2364,13 +2381,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="10">
-        <v>7</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2382,40 +2399,32 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A88" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="10">
+        <v>3</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
@@ -2426,13 +2435,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="10">
-        <v>1</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2444,16 +2453,16 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2462,16 +2471,16 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2480,13 +2489,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2498,94 +2507,94 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="10">
-        <v>6</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="9">
-        <v>7</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>68</v>
+      <c r="H95" s="10">
+        <v>1</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="9"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="9">
-        <v>8</v>
+      <c r="H96" s="10">
+        <v>2</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="10">
+        <v>3</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
@@ -2596,13 +2605,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="10">
-        <v>1</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2614,16 +2623,16 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2632,70 +2641,78 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="10"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="10">
-        <v>4</v>
+      <c r="H101" s="9">
+        <v>7</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="10"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="10">
-        <v>5</v>
+      <c r="H102" s="9">
+        <v>8</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="10">
-        <v>6</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A103" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2704,13 +2721,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="10">
-        <v>7</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2722,13 +2739,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2740,16 +2757,16 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2758,13 +2775,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2776,86 +2793,122 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="9"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-    </row>
-    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H109" s="10">
+        <v>6</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-    </row>
-    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H110" s="10">
+        <v>7</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="9"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-    </row>
-    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H111" s="10">
+        <v>8</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="9"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-    </row>
-    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H112" s="10">
+        <v>9</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="9"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-    </row>
-    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H113" s="10">
+        <v>10</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="9"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
+      <c r="H114" s="10">
+        <v>11</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
@@ -13453,22 +13506,95 @@
       <c r="I997" s="13"/>
       <c r="J997" s="13"/>
     </row>
+    <row r="998" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A998" s="8"/>
+      <c r="B998" s="8"/>
+      <c r="C998" s="8"/>
+      <c r="D998" s="9"/>
+      <c r="E998" s="8"/>
+      <c r="F998" s="8"/>
+      <c r="G998" s="8"/>
+      <c r="H998" s="9"/>
+      <c r="I998" s="13"/>
+      <c r="J998" s="13"/>
+    </row>
+    <row r="999" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="8"/>
+      <c r="D999" s="9"/>
+      <c r="E999" s="8"/>
+      <c r="F999" s="8"/>
+      <c r="G999" s="8"/>
+      <c r="H999" s="9"/>
+      <c r="I999" s="13"/>
+      <c r="J999" s="13"/>
+    </row>
+    <row r="1000" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="8"/>
+      <c r="D1000" s="9"/>
+      <c r="E1000" s="8"/>
+      <c r="F1000" s="8"/>
+      <c r="G1000" s="8"/>
+      <c r="H1000" s="9"/>
+      <c r="I1000" s="13"/>
+      <c r="J1000" s="13"/>
+    </row>
+    <row r="1001" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="8"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="8"/>
+      <c r="F1001" s="8"/>
+      <c r="G1001" s="8"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="13"/>
+      <c r="J1001" s="13"/>
+    </row>
+    <row r="1002" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="8"/>
+      <c r="D1002" s="9"/>
+      <c r="E1002" s="8"/>
+      <c r="F1002" s="8"/>
+      <c r="G1002" s="8"/>
+      <c r="H1002" s="9"/>
+      <c r="I1002" s="13"/>
+      <c r="J1002" s="13"/>
+    </row>
+    <row r="1003" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="8"/>
+      <c r="D1003" s="9"/>
+      <c r="E1003" s="8"/>
+      <c r="F1003" s="8"/>
+      <c r="G1003" s="8"/>
+      <c r="H1003" s="9"/>
+      <c r="I1003" s="13"/>
+      <c r="J1003" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{0D4910E1-FB11-1941-AB7F-F29F7BC917CC}"/>
     <hyperlink ref="I13" r:id="rId3" xr:uid="{346BA1D5-FDD8-6D4E-9615-B4C644F5CB83}"/>
     <hyperlink ref="I20" r:id="rId4" xr:uid="{63A37B66-E3D2-B148-BA2A-C90CF1576136}"/>
-    <hyperlink ref="I25" r:id="rId5" xr:uid="{256F8D02-A815-0E45-9401-E62C037C1EF9}"/>
-    <hyperlink ref="I35" r:id="rId6" xr:uid="{BA104DF7-0010-584C-84F8-ACFC7168688C}"/>
-    <hyperlink ref="I44" r:id="rId7" xr:uid="{76EFE357-AE8D-7B41-B69D-0E1F38E508AC}"/>
-    <hyperlink ref="I59" r:id="rId8" xr:uid="{AB747E99-E903-BD4E-B9B4-6FA657E76CD1}"/>
-    <hyperlink ref="I66" r:id="rId9" xr:uid="{778964EA-380E-3E4A-8774-75FAE42D12A0}"/>
-    <hyperlink ref="I73" r:id="rId10" xr:uid="{0AEF1B92-05EC-3242-97E0-EFACAB3570AC}"/>
-    <hyperlink ref="I80" r:id="rId11" xr:uid="{2F1B5E81-1173-344B-866D-9D29AE12A8C1}"/>
-    <hyperlink ref="I89" r:id="rId12" xr:uid="{51C6B0C9-EA29-B54E-BBE9-C69615CFE410}"/>
-    <hyperlink ref="I51" r:id="rId13" xr:uid="{00581B69-D063-B443-90B3-9A944BBA8A99}"/>
-    <hyperlink ref="I98" r:id="rId14" xr:uid="{E071FE74-40EF-3A4E-ADD7-FD7B9B0ABB6D}"/>
+    <hyperlink ref="I31" r:id="rId5" xr:uid="{256F8D02-A815-0E45-9401-E62C037C1EF9}"/>
+    <hyperlink ref="I41" r:id="rId6" xr:uid="{BA104DF7-0010-584C-84F8-ACFC7168688C}"/>
+    <hyperlink ref="I50" r:id="rId7" xr:uid="{76EFE357-AE8D-7B41-B69D-0E1F38E508AC}"/>
+    <hyperlink ref="I65" r:id="rId8" xr:uid="{AB747E99-E903-BD4E-B9B4-6FA657E76CD1}"/>
+    <hyperlink ref="I72" r:id="rId9" xr:uid="{778964EA-380E-3E4A-8774-75FAE42D12A0}"/>
+    <hyperlink ref="I79" r:id="rId10" xr:uid="{0AEF1B92-05EC-3242-97E0-EFACAB3570AC}"/>
+    <hyperlink ref="I86" r:id="rId11" xr:uid="{2F1B5E81-1173-344B-866D-9D29AE12A8C1}"/>
+    <hyperlink ref="I95" r:id="rId12" xr:uid="{51C6B0C9-EA29-B54E-BBE9-C69615CFE410}"/>
+    <hyperlink ref="I57" r:id="rId13" xr:uid="{00581B69-D063-B443-90B3-9A944BBA8A99}"/>
+    <hyperlink ref="I104" r:id="rId14" xr:uid="{E071FE74-40EF-3A4E-ADD7-FD7B9B0ABB6D}"/>
+    <hyperlink ref="I25" r:id="rId15" xr:uid="{8CF95D78-6275-3141-BC37-355A89EC12F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
